--- a/OAB팀프로젝트/5. 테이블명세서/OAB테이블명세서13.xlsx
+++ b/OAB팀프로젝트/5. 테이블명세서/OAB테이블명세서13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teamproject\workspaceOG\OABProject\OAB팀프로젝트\5. 테이블명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86283CB6-0074-4397-A197-938A9FE38F6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120AE29C-E537-4196-8185-4150F6D04E4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="252">
   <si>
     <t>테이블 명세서</t>
   </si>
@@ -2429,7 +2429,27 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>MT_NUMBER</t>
+    <t>FK</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔트값</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_SALT</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>REST_NUMBER</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약번호(FK)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENTAL_SEQ : SEQUENCE</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -2441,52 +2461,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>회원번호(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>FK)</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔트값</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST_SALT</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>REST_NUMBER</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약번호(FK)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>RENTAL_SEQ : SEQUENCE</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>로그인기록(</t>
     </r>
     <r>
@@ -2572,6 +2546,18 @@
   </si>
   <si>
     <t>상품종류</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT_ID</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원아이디(PK)</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -3045,21 +3031,9 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3073,9 +3047,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3296,8 +3282,8 @@
   </sheetPr>
   <dimension ref="A1:Y1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3325,29 +3311,29 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -3363,17 +3349,17 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
@@ -3683,17 +3669,17 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
@@ -3731,23 +3717,25 @@
         <v>1</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12" t="s">
-        <v>13</v>
+        <v>249</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="12">
+        <v>70</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>178</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="J21" s="12"/>
     </row>
@@ -3757,10 +3745,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>182</v>
@@ -3801,17 +3789,17 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
+      <c r="B25" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
@@ -3849,10 +3837,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>12</v>
@@ -3875,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>35</v>
@@ -3899,10 +3887,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>12</v>
@@ -3923,10 +3911,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>12</v>
@@ -3947,10 +3935,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>35</v>
@@ -3971,10 +3959,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>185</v>
@@ -4030,17 +4018,17 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="60"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
@@ -4190,10 +4178,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="D39" s="61" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>248</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>182</v>
@@ -4605,17 +4593,17 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="47"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="57"/>
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="4"/>
@@ -4989,17 +4977,17 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="4"/>
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="47"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="57"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="4"/>
@@ -5056,7 +5044,7 @@
         <v>88</v>
       </c>
       <c r="J70" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
@@ -5065,10 +5053,10 @@
         <v>2</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E71" s="32" t="s">
         <v>185</v>
@@ -5081,7 +5069,7 @@
         <v>177</v>
       </c>
       <c r="I71" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J71" s="12"/>
     </row>
@@ -5297,17 +5285,17 @@
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
       <c r="A82" s="4"/>
-      <c r="B82" s="48" t="s">
+      <c r="B82" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="47"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="57"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
       <c r="A83" s="4"/>
@@ -5683,17 +5671,17 @@
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
       <c r="A99" s="4"/>
-      <c r="B99" s="48" t="s">
+      <c r="B99" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C99" s="46"/>
-      <c r="D99" s="46"/>
-      <c r="E99" s="46"/>
-      <c r="F99" s="46"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="46"/>
-      <c r="J99" s="47"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="56"/>
+      <c r="J99" s="57"/>
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1">
       <c r="A100" s="4"/>
@@ -5959,17 +5947,17 @@
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="49" t="s">
+      <c r="B111" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="C111" s="46"/>
-      <c r="D111" s="46"/>
-      <c r="E111" s="46"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="46"/>
-      <c r="J111" s="47"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="56"/>
+      <c r="F111" s="56"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="56"/>
+      <c r="I111" s="56"/>
+      <c r="J111" s="57"/>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1">
       <c r="A112" s="4"/>
@@ -6219,17 +6207,17 @@
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="48" t="s">
+      <c r="B123" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="C123" s="46"/>
-      <c r="D123" s="46"/>
-      <c r="E123" s="46"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46"/>
-      <c r="I123" s="46"/>
-      <c r="J123" s="47"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="56"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="57"/>
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1">
       <c r="A124" s="4"/>
@@ -9391,6 +9379,9 @@
     <row r="1033" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B123:J123"/>
+    <mergeCell ref="B111:J111"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="B35:J35"/>
     <mergeCell ref="B51:J51"/>
@@ -9399,9 +9390,6 @@
     <mergeCell ref="B82:J82"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B123:J123"/>
-    <mergeCell ref="B111:J111"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/OAB팀프로젝트/5. 테이블명세서/OAB테이블명세서13.xlsx
+++ b/OAB팀프로젝트/5. 테이블명세서/OAB테이블명세서13.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teamproject\workspaceOG\OABProject\OAB팀프로젝트\5. 테이블명세서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120AE29C-E537-4196-8185-4150F6D04E4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세서" sheetId="1" r:id="rId1"/>
@@ -2479,10 +2473,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>HT_ID</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>HT_LASTFAIL</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2558,13 +2548,17 @@
   </si>
   <si>
     <t>회원아이디(PK)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT_ID</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21">
     <font>
       <sz val="10"/>
@@ -3034,6 +3028,18 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3047,21 +3053,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3276,24 +3270,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="74" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3311,29 +3305,29 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -3349,17 +3343,17 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
@@ -3669,17 +3663,17 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
@@ -3717,10 +3711,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>182</v>
@@ -3735,7 +3729,7 @@
         <v>14</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J21" s="12"/>
     </row>
@@ -3789,17 +3783,17 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
@@ -3840,7 +3834,7 @@
         <v>235</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>12</v>
@@ -3863,10 +3857,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>35</v>
@@ -3887,10 +3881,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>12</v>
@@ -3911,10 +3905,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>12</v>
@@ -3935,10 +3929,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>35</v>
@@ -3959,10 +3953,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>185</v>
@@ -4018,17 +4012,17 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="60"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
@@ -4178,10 +4172,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" s="45" t="s">
         <v>247</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>248</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>182</v>
@@ -4593,17 +4587,17 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="57"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="48"/>
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="4"/>
@@ -4977,17 +4971,17 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="4"/>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="57"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="48"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="4"/>
@@ -5285,17 +5279,17 @@
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
       <c r="A82" s="4"/>
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="57"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="48"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
       <c r="A83" s="4"/>
@@ -5671,17 +5665,17 @@
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
       <c r="A99" s="4"/>
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="56"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="56"/>
-      <c r="J99" s="57"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="47"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="48"/>
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1">
       <c r="A100" s="4"/>
@@ -5947,17 +5941,17 @@
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="59" t="s">
+      <c r="B111" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="C111" s="56"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="56"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="57"/>
+      <c r="C111" s="47"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="48"/>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1">
       <c r="A112" s="4"/>
@@ -6207,17 +6201,17 @@
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="55" t="s">
+      <c r="B123" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C123" s="56"/>
-      <c r="D123" s="56"/>
-      <c r="E123" s="56"/>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="57"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="47"/>
+      <c r="I123" s="47"/>
+      <c r="J123" s="48"/>
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1">
       <c r="A124" s="4"/>
